--- a/Labs/Lab_18/data.xlsx
+++ b/Labs/Lab_18/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>n</t>
   </si>
@@ -25,9 +25,6 @@
   </si>
   <si>
     <t>offset, В</t>
-  </si>
-  <si>
-    <t>dU, В</t>
   </si>
   <si>
     <t>dU/2, В</t>
@@ -217,11 +214,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235707712"/>
-        <c:axId val="167649856"/>
+        <c:axId val="229808896"/>
+        <c:axId val="229809472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235707712"/>
+        <c:axId val="229808896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -251,12 +248,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167649856"/>
+        <c:crossAx val="229809472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="167649856"/>
+        <c:axId val="229809472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -273,17 +270,14 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>K,</a:t>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>20*</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> </a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>lg(K)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t>В</a:t>
-                </a:r>
+                <a:endParaRPr lang="ru-RU" baseline="0"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -294,7 +288,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235707712"/>
+        <c:crossAx val="229808896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -329,184 +323,6 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$I$3:$K$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$I$4:$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>-13.716333217252455</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-20.431824147539217</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-27.670489722228687</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="167653312"/>
-        <c:axId val="167653888"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="167653312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="-2"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>n</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167653888"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="167653888"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>K,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t>В</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167653312"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -549,25 +365,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-56.790629377619261</c:v>
+                  <c:v>-49.370421659154893</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-42.158107946190391</c:v>
+                  <c:v>-41.012199867101742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-29.168415121068382</c:v>
+                  <c:v>-32.803290353202236</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-24.276333088647331</c:v>
+                  <c:v>-26.576543145698331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-20.838283029578296</c:v>
+                  <c:v>-21.734321964791633</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-19.031163928991909</c:v>
+                  <c:v>-19.023398269432999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-18.577094190978343</c:v>
+                  <c:v>-18.569723898098218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -582,11 +398,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="167655616"/>
-        <c:axId val="167656192"/>
+        <c:axId val="254381440"/>
+        <c:axId val="254382016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="167655616"/>
+        <c:axId val="254381440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -616,12 +432,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167656192"/>
+        <c:crossAx val="254382016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="167656192"/>
+        <c:axId val="254382016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -638,17 +454,20 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>K,</a:t>
+                  <a:rPr lang="ru-RU" sz="1000" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>20*</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> </a:t>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>lg(K)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t>В</a:t>
-                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -659,189 +478,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167655616"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-7.5999562554680666E-3"/>
-                  <c:y val="-1.650663458734325E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$C$24:$E$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$C$25:$E$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>-56.790629377619261</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-42.158107946190391</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-29.168415121068382</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="231314496"/>
-        <c:axId val="231315072"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="231314496"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>n</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231315072"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="231315072"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>K,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t>В</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231314496"/>
+        <c:crossAx val="254381440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -892,38 +529,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>642938</xdr:colOff>
       <xdr:row>27</xdr:row>
@@ -948,39 +553,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>616745</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>7145</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1278,15 +851,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
         <v>0.97499999999999998</v>
@@ -1409,19 +982,19 @@
         <v>3</v>
       </c>
       <c r="C23" s="1">
-        <v>1.1646999999999999E-2</v>
+        <v>1.35E-2</v>
       </c>
       <c r="D23" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E23" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="F23" s="1">
-        <v>7.1319999999999995E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="G23" s="1">
-        <v>0.10100000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H23" s="1">
         <v>0.122</v>
@@ -1430,7 +1003,7 @@
         <v>0.128</v>
       </c>
       <c r="L23">
-        <v>-1.0200000000000001E-2</v>
+        <v>-1.01E-2</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.45">
@@ -1465,31 +1038,31 @@
       </c>
       <c r="C25" s="1">
         <f xml:space="preserve"> 20 *LOG10(C23+$L$23)</f>
-        <v>-56.790629377619261</v>
+        <v>-49.370421659154893</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" ref="D25:I25" si="1" xml:space="preserve"> 20 *LOG10(D23+$L$23)</f>
-        <v>-42.158107946190391</v>
+        <v>-41.012199867101742</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>-29.168415121068382</v>
+        <v>-32.803290353202236</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="1"/>
-        <v>-24.276333088647331</v>
+        <v>-26.576543145698331</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="1"/>
-        <v>-20.838283029578296</v>
+        <v>-21.734321964791633</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="1"/>
-        <v>-19.031163928991909</v>
+        <v>-19.023398269432999</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="1"/>
-        <v>-18.577094190978343</v>
+        <v>-18.569723898098218</v>
       </c>
     </row>
   </sheetData>
